--- a/r5-ELGA-MOPED-POC-IG-Teil-1/StructureDefinition-moped-ext-RechnungsnummerKHLGF.xlsx
+++ b/r5-ELGA-MOPED-POC-IG-Teil-1/StructureDefinition-moped-ext-RechnungsnummerKHLGF.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T20:41:03+00:00</t>
+    <t>2024-09-30T20:48:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-POC-IG-Teil-1/StructureDefinition-moped-ext-RechnungsnummerKHLGF.xlsx
+++ b/r5-ELGA-MOPED-POC-IG-Teil-1/StructureDefinition-moped-ext-RechnungsnummerKHLGF.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T20:48:02+00:00</t>
+    <t>2024-10-01T15:25:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-POC-IG-Teil-1/StructureDefinition-moped-ext-RechnungsnummerKHLGF.xlsx
+++ b/r5-ELGA-MOPED-POC-IG-Teil-1/StructureDefinition-moped-ext-RechnungsnummerKHLGF.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T15:25:51+00:00</t>
+    <t>2024-10-01T15:31:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-POC-IG-Teil-1/StructureDefinition-moped-ext-RechnungsnummerKHLGF.xlsx
+++ b/r5-ELGA-MOPED-POC-IG-Teil-1/StructureDefinition-moped-ext-RechnungsnummerKHLGF.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T15:31:56+00:00</t>
+    <t>2024-10-02T12:30:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
